--- a/similarities/split_global/harmonic_similarity_timestamps_41.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_127</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb:7']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:37.390000', '0:01:40.090000')]</t>
+          <t>('0:00:20.600000', '0:00:24.180000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:55.500000', '0:00:59.060000')]</t>
+          <t>('0:01:03.840000', '0:01:07.540000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=97.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=20.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-127#t=55.5']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>['F:7', 'Bb', 'G:min7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
+          <t>['Eb:7/#5', 'Ab', 'F:min7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:03:36.280000', '0:03:44.400000')]</t>
+          <t>('0:00:15.539000', '0:00:22.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:34.041000', '0:00:38.588000')]</t>
+          <t>('0:00:02.624000', '0:00:06.624000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=216.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=15.539</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min7', 'D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:min7', 'C:7', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:07.980000', '0:00:11.210000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:58.450000', '0:01:02.950000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=7.98</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=58.45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:32.874217', '0:00:42.916848')]</t>
+          <t>('0:01:06.100000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:00:17.180000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['A#', 'A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:04:02.060000', '0:04:14.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:28.440000', '0:01:34.900000'), ('0:00:14.840000', '0:00:22.200000')]</t>
+          <t>('0:04:29.700000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=242.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=88.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000'), ('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:06.980000', '0:00:15.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb:maj6', 'C:min', 'F:7', 'Bb']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:min', 'G:7', 'C']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:25.020000', '0:00:31.880000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:30.988000', '0:00:37.053000')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=25.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=30.988']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:03.560000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+          <t>('0:00:36.200000', '0:00:42.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=36.2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:58.440000', '0:02:02')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.510000', '0:00:15.070000')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:42.960000', '0:00:45.780000')]</t>
+          <t>('0:00:46.932280', '0:00:57.636679')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:58.920000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:09.236303', '0:00:12.162018')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=19.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000'), ('0:00:31.240000', '0:00:37.500000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:00:37.740000', '0:00:40.640000')]</t>
+          <t>('0:00:10.260000', '0:00:15.940000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=31.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
